--- a/CSharp/ReportGenerators/PriceList/Xlsx/PriceList_template.xlsx
+++ b/CSharp/ReportGenerators/PriceList/Xlsx/PriceList_template.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
-  <workbookPr/>
+<x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <x:fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <x:workbookPr/>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85F0F4E7-F3F9-495E-AA39-27B0669611C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
-  <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-  </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <x:bookViews>
+    <x:workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </x:bookViews>
+  <x:sheets>
+    <x:sheet name="Лист1" sheetId="1" r:id="rId1"/>
+  </x:sheets>
+  <x:calcPr calcId="162913"/>
+  <x:extLst>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
-</workbook>
+    </x:ext>
+  </x:extLst>
+</x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
